--- a/file_checks/X_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/X_correct_genes_wrong_pheno.xlsx
@@ -563,7 +563,7 @@
     <t xml:space="preserve">RR_rorS_risk_high</t>
   </si>
   <si>
-    <t xml:space="preserve">XX_Endo</t>
+    <t xml:space="preserve">RR_Endo</t>
   </si>
 </sst>
 </file>
@@ -1451,553 +1451,553 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1.48363864727761</v>
+        <v>-1.79404731953394</v>
       </c>
       <c r="B2" t="n">
-        <v>1.5717334627043</v>
+        <v>0.362652693628929</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.09888730261694</v>
+        <v>-1.57128374007041</v>
       </c>
       <c r="D2" t="n">
-        <v>0.202603214647151</v>
+        <v>-0.385225030184759</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.264092378769914</v>
+        <v>-0.275018750828617</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.40001813470792</v>
+        <v>0.132513771460915</v>
       </c>
       <c r="G2" t="n">
-        <v>-1.32611624030632</v>
+        <v>-2.1691333563426</v>
       </c>
       <c r="H2" t="n">
-        <v>2.71807519951555</v>
+        <v>0.220472837233675</v>
       </c>
       <c r="I2" t="n">
-        <v>0.242894326499055</v>
+        <v>-0.103291181262543</v>
       </c>
       <c r="J2" t="n">
-        <v>-1.30681439532003</v>
+        <v>2.06403716814422</v>
       </c>
       <c r="K2" t="n">
-        <v>0.355189087770745</v>
+        <v>1.40748741224077</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0108214211927273</v>
+        <v>-0.431505511155211</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.625694251695029</v>
+        <v>0.602593599552058</v>
       </c>
       <c r="N2" t="n">
-        <v>0.845349688633244</v>
+        <v>0.276498355068397</v>
       </c>
       <c r="O2" t="n">
-        <v>0.688071364157358</v>
+        <v>-0.0897394730287223</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0292235849675963</v>
+        <v>-0.55212075208783</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.269364555108254</v>
+        <v>0.914409583459456</v>
       </c>
       <c r="R2" t="n">
-        <v>1.1867587495296</v>
+        <v>1.36674201580595</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0638485604671041</v>
+        <v>-0.0141692559621817</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.984847332065423</v>
+        <v>0.740582026751488</v>
       </c>
       <c r="U2" t="n">
-        <v>-2.22398967017281</v>
+        <v>0.935934794138935</v>
       </c>
       <c r="V2" t="n">
-        <v>-1.7029744586346</v>
+        <v>-0.187544211042259</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.761201229723738</v>
+        <v>-0.648731637180436</v>
       </c>
       <c r="X2" t="n">
-        <v>0.218134548809102</v>
+        <v>0.033621740978171</v>
       </c>
       <c r="Y2" t="n">
-        <v>-1.25973831002642</v>
+        <v>1.389696463441</v>
       </c>
       <c r="Z2" t="n">
-        <v>-1.79428951295923</v>
+        <v>1.28671180286912</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.56609004503659</v>
+        <v>-0.287866034124938</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.94470081511274</v>
+        <v>-1.62671405144084</v>
       </c>
       <c r="AC2" t="n">
-        <v>1.41417286201421</v>
+        <v>-1.01115142853549</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.57716620305929</v>
+        <v>1.04672482636101</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.232157034320061</v>
+        <v>-0.0333566047058658</v>
       </c>
       <c r="AF2" t="n">
-        <v>0.180243801797202</v>
+        <v>-0.358735178652575</v>
       </c>
       <c r="AG2" t="n">
-        <v>-1.13765914314638</v>
+        <v>-0.696428410036714</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.756818745888148</v>
+        <v>0.391934861869396</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.677603053800474</v>
+        <v>0.139939849664349</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.62228687383251</v>
+        <v>-0.138713432874915</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.68424221946797</v>
+        <v>0.266060932881093</v>
       </c>
       <c r="AL2" t="n">
-        <v>-1.44999688014421</v>
+        <v>-0.315611108227316</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.40634204205691</v>
+        <v>-1.88069969680373</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.20021196198719</v>
+        <v>1.1401744102375</v>
       </c>
       <c r="AO2" t="n">
-        <v>-0.174121076321837</v>
+        <v>1.01548611055983</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.922621646685501</v>
+        <v>0.818335930362205</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.02856017965195</v>
+        <v>0.787735747825433</v>
       </c>
       <c r="AR2" t="n">
-        <v>1.63186554513654</v>
+        <v>0.408241689524734</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.57757159649278</v>
+        <v>-1.43395323205448</v>
       </c>
       <c r="AT2" t="n">
-        <v>-1.41884927621959</v>
+        <v>0.950399092195313</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.290310517145373</v>
+        <v>0.8531251411025</v>
       </c>
       <c r="AV2" t="n">
-        <v>-0.686388857960056</v>
+        <v>1.42054133556208</v>
       </c>
       <c r="AW2" t="n">
-        <v>0.273788597067591</v>
+        <v>-0.182475048047183</v>
       </c>
       <c r="AX2" t="n">
-        <v>-1.32515379227555</v>
+        <v>0.553198274421813</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.419166526779337</v>
+        <v>1.67206626087627</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.409614589746722</v>
+        <v>-0.461531451720055</v>
       </c>
       <c r="BA2" t="n">
-        <v>0.413344773374905</v>
+        <v>-0.885681960408367</v>
       </c>
       <c r="BB2" t="n">
-        <v>-2.81927559964883</v>
+        <v>0.0253684496057905</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.224045025349874</v>
+        <v>0.514524748737815</v>
       </c>
       <c r="BD2" t="n">
-        <v>1.03939890555273</v>
+        <v>0.488829744711448</v>
       </c>
       <c r="BE2" t="n">
-        <v>1.37362427892124</v>
+        <v>-0.0439960090234377</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.45582884271605</v>
+        <v>0.14038014718426</v>
       </c>
       <c r="BG2" t="n">
-        <v>-0.212917983689563</v>
+        <v>2.0111635476288</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.77558845778437</v>
+        <v>-0.231785792885106</v>
       </c>
       <c r="BI2" t="n">
-        <v>1.30354016660024</v>
+        <v>0.543842675053832</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.12879824279529</v>
+        <v>0.39041132038723</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.11311624845857</v>
+        <v>1.00887929546576</v>
       </c>
       <c r="BL2" t="n">
-        <v>1.72382424835927</v>
+        <v>-1.86741045304424</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.664498053850815</v>
+        <v>-0.474441786987043</v>
       </c>
       <c r="BN2" t="n">
-        <v>-0.801077326141228</v>
+        <v>-1.60782181523496</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.554269522369938</v>
+        <v>-0.33935538859043</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.763778265489432</v>
+        <v>0.686774751857976</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.117468019968258</v>
+        <v>-0.651951107990253</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.346101993299871</v>
+        <v>-1.38924510535874</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.296869238089984</v>
+        <v>0.437914000431823</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.915890532831598</v>
+        <v>0.702861458773645</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.531322629651338</v>
+        <v>-0.738541201682558</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.70659986113098</v>
+        <v>-0.860252906274801</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.04084590793569</v>
+        <v>-0.337015694324945</v>
       </c>
       <c r="BX2" t="n">
-        <v>1.19711451307505</v>
+        <v>0.24224477077302</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.526873832102276</v>
+        <v>-2.42921784223199</v>
       </c>
       <c r="BZ2" t="n">
-        <v>0.0614929021611089</v>
+        <v>-1.29398854384214</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.858123267274507</v>
+        <v>-0.700754711988807</v>
       </c>
       <c r="CB2" t="n">
-        <v>-1.23728122878982</v>
+        <v>0.835986648206206</v>
       </c>
       <c r="CC2" t="n">
-        <v>-1.47249559503519</v>
+        <v>0.674667714460812</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.0690086057916224</v>
+        <v>1.67840351487948</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.724469129904553</v>
+        <v>-0.151548381714312</v>
       </c>
       <c r="CF2" t="n">
-        <v>0.0309872654059005</v>
+        <v>-0.717112265541024</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0471591715372564</v>
+        <v>0.0689627070746139</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.120547485678687</v>
+        <v>0.34362198574058</v>
       </c>
       <c r="CI2" t="n">
-        <v>0.482543460630235</v>
+        <v>1.53692891215902</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.391812247986592</v>
+        <v>-0.0249798046119331</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.960251962866921</v>
+        <v>0.214048649615893</v>
       </c>
       <c r="CL2" t="n">
-        <v>-0.392317111765179</v>
+        <v>1.31205406622569</v>
       </c>
       <c r="CM2" t="n">
-        <v>-0.0477394699497309</v>
+        <v>0.365488513245583</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.73873693794832</v>
+        <v>-0.783053711755229</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.426563238167107</v>
+        <v>-1.45571080112183</v>
       </c>
       <c r="CP2" t="n">
-        <v>-1.55089256292962</v>
+        <v>0.228781221377302</v>
       </c>
       <c r="CQ2" t="n">
-        <v>1.6317776063788</v>
+        <v>0.160278049406527</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.180015899369095</v>
+        <v>0.296250548624205</v>
       </c>
       <c r="CS2" t="n">
-        <v>-0.875243811087188</v>
+        <v>-1.01947389031847</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.856276015990826</v>
+        <v>-0.284154832075255</v>
       </c>
       <c r="CU2" t="n">
-        <v>-0.3853464773504</v>
+        <v>2.05616874201846</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.34533081795675</v>
+        <v>-0.824969599681309</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.864408524381897</v>
+        <v>-0.650472058590043</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.966144242872802</v>
+        <v>1.03733731171241</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.45185011703472</v>
+        <v>1.00670096588094</v>
       </c>
       <c r="CZ2" t="n">
-        <v>-1.77195589742024</v>
+        <v>1.09882859937386</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.129797154929343</v>
+        <v>0.261931544996848</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.877728695857187</v>
+        <v>-0.721633066717921</v>
       </c>
       <c r="DC2" t="n">
-        <v>-0.0880089743405049</v>
+        <v>-1.05925341470275</v>
       </c>
       <c r="DD2" t="n">
-        <v>-2.46474749262473</v>
+        <v>0.127814519120837</v>
       </c>
       <c r="DE2" t="n">
-        <v>0.598354246530009</v>
+        <v>-0.210197333286736</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.275635263434255</v>
+        <v>0.747572705259203</v>
       </c>
       <c r="DG2" t="n">
-        <v>-0.230179720641739</v>
+        <v>0.0884102176377728</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.225193012474608</v>
+        <v>0.567310340288764</v>
       </c>
       <c r="DI2" t="n">
-        <v>-1.33329747105302</v>
+        <v>-0.0694883021912255</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.255034145739768</v>
+        <v>-0.272895219631318</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.593328377348719</v>
+        <v>-0.173452735346883</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.326793287832666</v>
+        <v>0.784283850921299</v>
       </c>
       <c r="DM2" t="n">
-        <v>-1.31088556969861</v>
+        <v>1.76661477789627</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.653199192858116</v>
+        <v>0.756789974036959</v>
       </c>
       <c r="DO2" t="n">
-        <v>0.124673717205517</v>
+        <v>1.41733034069935</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.146713281990366</v>
+        <v>-0.185440103790833</v>
       </c>
       <c r="DQ2" t="n">
-        <v>-2.28833274827222</v>
+        <v>1.26492808570017</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.231253398017287</v>
+        <v>-0.848240408361871</v>
       </c>
       <c r="DS2" t="n">
-        <v>2.50096375231736</v>
+        <v>-0.898036667867211</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.477381618576837</v>
+        <v>-0.899855655575297</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.439537679799857</v>
+        <v>-1.31096161303422</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.685350385013798</v>
+        <v>0.849439107076418</v>
       </c>
       <c r="DW2" t="n">
-        <v>0.523754039299801</v>
+        <v>-0.601607858938585</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.769862319626725</v>
+        <v>-1.636256026656</v>
       </c>
       <c r="DY2" t="n">
-        <v>-1.01457967757014</v>
+        <v>-0.0029865384413219</v>
       </c>
       <c r="DZ2" t="n">
-        <v>0.515020207839601</v>
+        <v>-0.654434676367638</v>
       </c>
       <c r="EA2" t="n">
-        <v>0.00276464169956094</v>
+        <v>-0.761349567639109</v>
       </c>
       <c r="EB2" t="n">
-        <v>1.87469914239171</v>
+        <v>0.183160138894249</v>
       </c>
       <c r="EC2" t="n">
-        <v>-1.29118842441478</v>
+        <v>0.544226514584537</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.74095375185452</v>
+        <v>0.902175526527719</v>
       </c>
       <c r="EE2" t="n">
-        <v>-0.175960413179833</v>
+        <v>0.0660860921953296</v>
       </c>
       <c r="EF2" t="n">
-        <v>-2.30548957373455</v>
+        <v>1.23675047204155</v>
       </c>
       <c r="EG2" t="n">
-        <v>-1.98392459007414</v>
+        <v>0.332940348596578</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.148667949442376</v>
+        <v>-0.555716751677898</v>
       </c>
       <c r="EI2" t="n">
-        <v>0.259913135193434</v>
+        <v>1.0120313546361</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.2892079262148</v>
+        <v>2.38779279856192</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0.0446511733077479</v>
+        <v>0.0600394984746436</v>
       </c>
       <c r="EL2" t="n">
-        <v>-0.934735864553123</v>
+        <v>0.360359572275451</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.750805405982262</v>
+        <v>-0.563027955404188</v>
       </c>
       <c r="EN2" t="n">
-        <v>1.21501092213424</v>
+        <v>-0.613990758176599</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.170618808981571</v>
+        <v>0.741569296499829</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.94349096897544</v>
+        <v>-0.135426017573518</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.0586742210925363</v>
+        <v>-0.500587198926219</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.338831051112526</v>
+        <v>0.676012730827202</v>
       </c>
       <c r="ES2" t="n">
-        <v>0.96224459615813</v>
+        <v>-0.274005156635163</v>
       </c>
       <c r="ET2" t="n">
-        <v>-2.2690837110194</v>
+        <v>0.171609241562987</v>
       </c>
       <c r="EU2" t="n">
-        <v>-0.32802261219982</v>
+        <v>3.4873842079654</v>
       </c>
       <c r="EV2" t="n">
-        <v>1.19384884585058</v>
+        <v>0.668928676397074</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.414192336248443</v>
+        <v>0.650365612530242</v>
       </c>
       <c r="EX2" t="n">
-        <v>-0.788977793892295</v>
+        <v>2.01388333829586</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.763189335862805</v>
+        <v>0.584317600879325</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.25767512685514</v>
+        <v>1.90193523892932</v>
       </c>
       <c r="FA2" t="n">
-        <v>0.195817193696554</v>
+        <v>-0.793191455854133</v>
       </c>
       <c r="FB2" t="n">
-        <v>-1.54354069511298</v>
+        <v>0.601684359072779</v>
       </c>
       <c r="FC2" t="n">
-        <v>-1.93902569213364</v>
+        <v>-0.383500898369151</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.230154645810507</v>
+        <v>0.225180843702547</v>
       </c>
       <c r="FE2" t="n">
-        <v>0.167187732389999</v>
+        <v>-0.0247211109346558</v>
       </c>
       <c r="FF2" t="n">
-        <v>0.58524145619906</v>
+        <v>1.08917974896587</v>
       </c>
       <c r="FG2" t="n">
-        <v>2.38996836583847</v>
+        <v>2.78740201607653</v>
       </c>
       <c r="FH2" t="n">
-        <v>-2.81190473096188</v>
+        <v>0.423356669190761</v>
       </c>
       <c r="FI2" t="n">
-        <v>2.16564176520318</v>
+        <v>-1.32861991818462</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.889382333535329</v>
+        <v>-0.77847310986324</v>
       </c>
       <c r="FK2" t="n">
         <v>1</v>
       </c>
       <c r="FL2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
       </c>
       <c r="FN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FO2" t="n">
         <v>1</v>
-      </c>
-      <c r="FO2" t="n">
-        <v>0</v>
       </c>
       <c r="FP2" t="n">
         <v>1</v>
       </c>
       <c r="FQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FU2" t="n">
         <v>1</v>
       </c>
-      <c r="FR2" t="n">
+      <c r="FV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FY2" t="n">
         <v>1</v>
       </c>
-      <c r="FS2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FT2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FU2" t="n">
+      <c r="FZ2" t="n">
         <v>0</v>
       </c>
-      <c r="FV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FW2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FX2" t="n">
-        <v>1</v>
-      </c>
-      <c r="FY2" t="n">
+      <c r="GA2" t="n">
         <v>0</v>
-      </c>
-      <c r="FZ2" t="n">
-        <v>1</v>
-      </c>
-      <c r="GA2" t="n">
-        <v>1</v>
       </c>
       <c r="GB2" t="n">
         <v>1</v>

--- a/file_checks/X_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/X_correct_genes_wrong_pheno.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t xml:space="preserve">X_1017</t>
   </si>
@@ -561,6 +561,15 @@
   </si>
   <si>
     <t xml:space="preserve">RR_rorS_risk_high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_ER_hp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_ER_lp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR_HER2_scmod1</t>
   </si>
   <si>
     <t xml:space="preserve">RR_Endo</t>
@@ -1448,526 +1457,535 @@
       <c r="GB1" t="s">
         <v>183</v>
       </c>
+      <c r="GC1" t="s">
+        <v>184</v>
+      </c>
+      <c r="GD1" t="s">
+        <v>185</v>
+      </c>
+      <c r="GE1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-1.79404731953394</v>
+        <v>0.697514594722577</v>
       </c>
       <c r="B2" t="n">
-        <v>0.362652693628929</v>
+        <v>-0.491357502828681</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.57128374007041</v>
+        <v>-0.309243779805725</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.385225030184759</v>
+        <v>-1.19463026933733</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.275018750828617</v>
+        <v>-0.642256029647949</v>
       </c>
       <c r="F2" t="n">
-        <v>0.132513771460915</v>
+        <v>1.2819898630673</v>
       </c>
       <c r="G2" t="n">
-        <v>-2.1691333563426</v>
+        <v>0.0508805321446398</v>
       </c>
       <c r="H2" t="n">
-        <v>0.220472837233675</v>
+        <v>-0.948570332650002</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.103291181262543</v>
+        <v>-0.856556098723805</v>
       </c>
       <c r="J2" t="n">
-        <v>2.06403716814422</v>
+        <v>-0.96261371299428</v>
       </c>
       <c r="K2" t="n">
-        <v>1.40748741224077</v>
+        <v>-0.203762911050195</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.431505511155211</v>
+        <v>-0.796641531311035</v>
       </c>
       <c r="M2" t="n">
-        <v>0.602593599552058</v>
+        <v>0.124206665452719</v>
       </c>
       <c r="N2" t="n">
-        <v>0.276498355068397</v>
+        <v>-0.848259971460285</v>
       </c>
       <c r="O2" t="n">
-        <v>-0.0897394730287223</v>
+        <v>0.0718870903230821</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.55212075208783</v>
+        <v>2.1411067678931</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.914409583459456</v>
+        <v>-0.0826210452308016</v>
       </c>
       <c r="R2" t="n">
-        <v>1.36674201580595</v>
+        <v>0.072598412196601</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.0141692559621817</v>
+        <v>4.02029147676689</v>
       </c>
       <c r="T2" t="n">
-        <v>0.740582026751488</v>
+        <v>1.86266613516647</v>
       </c>
       <c r="U2" t="n">
-        <v>0.935934794138935</v>
+        <v>-0.0880481161533325</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.187544211042259</v>
+        <v>-0.939239594912237</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.648731637180436</v>
+        <v>-1.71039703322208</v>
       </c>
       <c r="X2" t="n">
-        <v>0.033621740978171</v>
+        <v>-0.179675760259279</v>
       </c>
       <c r="Y2" t="n">
-        <v>1.389696463441</v>
+        <v>-0.765642241071463</v>
       </c>
       <c r="Z2" t="n">
-        <v>1.28671180286912</v>
+        <v>-0.223446545062862</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.287866034124938</v>
+        <v>-0.669716053128112</v>
       </c>
       <c r="AB2" t="n">
-        <v>-1.62671405144084</v>
+        <v>1.13600278184753</v>
       </c>
       <c r="AC2" t="n">
-        <v>-1.01115142853549</v>
+        <v>-2.16198128812405</v>
       </c>
       <c r="AD2" t="n">
-        <v>1.04672482636101</v>
+        <v>-2.28880960191139</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.0333566047058658</v>
+        <v>-0.285037569745173</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.358735178652575</v>
+        <v>-2.10661167437928</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0.696428410036714</v>
+        <v>0.17075679160221</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.391934861869396</v>
+        <v>1.56079446033008</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.139939849664349</v>
+        <v>0.621842161536371</v>
       </c>
       <c r="AJ2" t="n">
-        <v>-0.138713432874915</v>
+        <v>0.583892600614114</v>
       </c>
       <c r="AK2" t="n">
-        <v>0.266060932881093</v>
+        <v>1.35584079345241</v>
       </c>
       <c r="AL2" t="n">
-        <v>-0.315611108227316</v>
+        <v>1.16523631358054</v>
       </c>
       <c r="AM2" t="n">
-        <v>-1.88069969680373</v>
+        <v>-0.658488856335272</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.1401744102375</v>
+        <v>0.684681349736467</v>
       </c>
       <c r="AO2" t="n">
-        <v>1.01548611055983</v>
+        <v>0.144187819979144</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.818335930362205</v>
+        <v>1.66174500858683</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.787735747825433</v>
+        <v>0.674580813539964</v>
       </c>
       <c r="AR2" t="n">
-        <v>0.408241689524734</v>
+        <v>-0.304804163338111</v>
       </c>
       <c r="AS2" t="n">
-        <v>-1.43395323205448</v>
+        <v>-0.113488269260014</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.950399092195313</v>
+        <v>-0.740647714610414</v>
       </c>
       <c r="AU2" t="n">
-        <v>0.8531251411025</v>
+        <v>-0.503060317710233</v>
       </c>
       <c r="AV2" t="n">
-        <v>1.42054133556208</v>
+        <v>0.521015810484499</v>
       </c>
       <c r="AW2" t="n">
-        <v>-0.182475048047183</v>
+        <v>1.28202305200535</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.553198274421813</v>
+        <v>0.974742174932337</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.67206626087627</v>
+        <v>0.716646627654134</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-0.461531451720055</v>
+        <v>-1.25790842917589</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.885681960408367</v>
+        <v>-0.0092101261979974</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.0253684496057905</v>
+        <v>0.251512385579667</v>
       </c>
       <c r="BC2" t="n">
-        <v>0.514524748737815</v>
+        <v>-0.816720523655337</v>
       </c>
       <c r="BD2" t="n">
-        <v>0.488829744711448</v>
+        <v>-0.862001122412184</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.0439960090234377</v>
+        <v>-0.425539126938418</v>
       </c>
       <c r="BF2" t="n">
-        <v>0.14038014718426</v>
+        <v>-1.09549954596627</v>
       </c>
       <c r="BG2" t="n">
-        <v>2.0111635476288</v>
+        <v>1.15537417490741</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0.231785792885106</v>
+        <v>-1.39643599551427</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.543842675053832</v>
+        <v>0.0302681909602505</v>
       </c>
       <c r="BJ2" t="n">
-        <v>0.39041132038723</v>
+        <v>1.67456057686875</v>
       </c>
       <c r="BK2" t="n">
-        <v>1.00887929546576</v>
+        <v>0.466211383231206</v>
       </c>
       <c r="BL2" t="n">
-        <v>-1.86741045304424</v>
+        <v>-0.48987719401025</v>
       </c>
       <c r="BM2" t="n">
-        <v>-0.474441786987043</v>
+        <v>1.05656685437679</v>
       </c>
       <c r="BN2" t="n">
-        <v>-1.60782181523496</v>
+        <v>0.0919238969130364</v>
       </c>
       <c r="BO2" t="n">
-        <v>-0.33935538859043</v>
+        <v>-1.19958144041312</v>
       </c>
       <c r="BP2" t="n">
-        <v>0.686774751857976</v>
+        <v>-0.296301525165965</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0.651951107990253</v>
+        <v>0.825727738560444</v>
       </c>
       <c r="BR2" t="n">
-        <v>-1.38924510535874</v>
+        <v>-0.408484456331923</v>
       </c>
       <c r="BS2" t="n">
-        <v>0.437914000431823</v>
+        <v>-0.900122995643793</v>
       </c>
       <c r="BT2" t="n">
-        <v>0.702861458773645</v>
+        <v>1.78096938766088</v>
       </c>
       <c r="BU2" t="n">
-        <v>-0.738541201682558</v>
+        <v>0.478591183791851</v>
       </c>
       <c r="BV2" t="n">
-        <v>-0.860252906274801</v>
+        <v>0.112019697734297</v>
       </c>
       <c r="BW2" t="n">
-        <v>-0.337015694324945</v>
+        <v>-1.93894251462615</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.24224477077302</v>
+        <v>0.25394418113565</v>
       </c>
       <c r="BY2" t="n">
-        <v>-2.42921784223199</v>
+        <v>-0.00559207078480924</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-1.29398854384214</v>
+        <v>-0.54565185485714</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.700754711988807</v>
+        <v>-0.160951514839096</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.835986648206206</v>
+        <v>0.532604255762366</v>
       </c>
       <c r="CC2" t="n">
-        <v>0.674667714460812</v>
+        <v>-0.104379966046575</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.67840351487948</v>
+        <v>0.741024942141192</v>
       </c>
       <c r="CE2" t="n">
-        <v>-0.151548381714312</v>
+        <v>0.22060160553098</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.717112265541024</v>
+        <v>-0.696575967152303</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.0689627070746139</v>
+        <v>0.656071577221661</v>
       </c>
       <c r="CH2" t="n">
-        <v>0.34362198574058</v>
+        <v>-0.493702327354168</v>
       </c>
       <c r="CI2" t="n">
-        <v>1.53692891215902</v>
+        <v>-0.506833675915727</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-0.0249798046119331</v>
+        <v>-1.29088718427462</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.214048649615893</v>
+        <v>0.801996400685382</v>
       </c>
       <c r="CL2" t="n">
-        <v>1.31205406622569</v>
+        <v>-1.73326007609579</v>
       </c>
       <c r="CM2" t="n">
-        <v>0.365488513245583</v>
+        <v>-1.09603348196083</v>
       </c>
       <c r="CN2" t="n">
-        <v>-0.783053711755229</v>
+        <v>1.10586279718626</v>
       </c>
       <c r="CO2" t="n">
-        <v>-1.45571080112183</v>
+        <v>0.470402635345725</v>
       </c>
       <c r="CP2" t="n">
-        <v>0.228781221377302</v>
+        <v>1.5962349154818</v>
       </c>
       <c r="CQ2" t="n">
-        <v>0.160278049406527</v>
+        <v>-0.621954803060405</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.296250548624205</v>
+        <v>1.07208603595402</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.01947389031847</v>
+        <v>-1.43394816288753</v>
       </c>
       <c r="CT2" t="n">
-        <v>-0.284154832075255</v>
+        <v>0.957096460249657</v>
       </c>
       <c r="CU2" t="n">
-        <v>2.05616874201846</v>
+        <v>0.411368224533706</v>
       </c>
       <c r="CV2" t="n">
-        <v>-0.824969599681309</v>
+        <v>0.950056185761822</v>
       </c>
       <c r="CW2" t="n">
-        <v>-0.650472058590043</v>
+        <v>0.31591710411394</v>
       </c>
       <c r="CX2" t="n">
-        <v>1.03733731171241</v>
+        <v>-0.155898232277301</v>
       </c>
       <c r="CY2" t="n">
-        <v>1.00670096588094</v>
+        <v>-1.31188143219367</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.09882859937386</v>
+        <v>1.37354245880111</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.261931544996848</v>
+        <v>0.389117317292965</v>
       </c>
       <c r="DB2" t="n">
-        <v>-0.721633066717921</v>
+        <v>0.78728216635024</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.05925341470275</v>
+        <v>-1.98518782445248</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.127814519120837</v>
+        <v>-1.38254985088889</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.210197333286736</v>
+        <v>-0.245062549221101</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.747572705259203</v>
+        <v>1.16852754424024</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.0884102176377728</v>
+        <v>0.746014349848874</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.567310340288764</v>
+        <v>0.925961731149892</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.0694883021912255</v>
+        <v>-0.814934983781039</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0.272895219631318</v>
+        <v>0.707936801037086</v>
       </c>
       <c r="DK2" t="n">
-        <v>-0.173452735346883</v>
+        <v>-1.17065914532653</v>
       </c>
       <c r="DL2" t="n">
-        <v>0.784283850921299</v>
+        <v>-0.729017835805525</v>
       </c>
       <c r="DM2" t="n">
-        <v>1.76661477789627</v>
+        <v>-1.0259580783921</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.756789974036959</v>
+        <v>0.741001622123877</v>
       </c>
       <c r="DO2" t="n">
-        <v>1.41733034069935</v>
+        <v>-0.0477653277392361</v>
       </c>
       <c r="DP2" t="n">
-        <v>-0.185440103790833</v>
+        <v>-1.37992750156178</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.26492808570017</v>
+        <v>1.027190679539</v>
       </c>
       <c r="DR2" t="n">
-        <v>-0.848240408361871</v>
+        <v>0.344450687501913</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0.898036667867211</v>
+        <v>1.61583416835715</v>
       </c>
       <c r="DT2" t="n">
-        <v>-0.899855655575297</v>
+        <v>0.92880664466808</v>
       </c>
       <c r="DU2" t="n">
-        <v>-1.31096161303422</v>
+        <v>0.868641311544345</v>
       </c>
       <c r="DV2" t="n">
-        <v>0.849439107076418</v>
+        <v>-0.490725659727566</v>
       </c>
       <c r="DW2" t="n">
-        <v>-0.601607858938585</v>
+        <v>1.27051951917213</v>
       </c>
       <c r="DX2" t="n">
-        <v>-1.636256026656</v>
+        <v>-0.248808216027432</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.0029865384413219</v>
+        <v>-0.817333856971078</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.654434676367638</v>
+        <v>-0.183160567309036</v>
       </c>
       <c r="EA2" t="n">
-        <v>-0.761349567639109</v>
+        <v>1.46136728729149</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.183160138894249</v>
+        <v>0.0989091902939847</v>
       </c>
       <c r="EC2" t="n">
-        <v>0.544226514584537</v>
+        <v>-0.0663556234350011</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.902175526527719</v>
+        <v>0.103779957079903</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0660860921953296</v>
+        <v>0.0506698213144966</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.23675047204155</v>
+        <v>1.01839146550064</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.332940348596578</v>
+        <v>0.216936673098082</v>
       </c>
       <c r="EH2" t="n">
-        <v>-0.555716751677898</v>
+        <v>0.73546636429493</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.0120313546361</v>
+        <v>1.35736725400751</v>
       </c>
       <c r="EJ2" t="n">
-        <v>2.38779279856192</v>
+        <v>1.62321277341077</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.0600394984746436</v>
+        <v>-1.44417347201529</v>
       </c>
       <c r="EL2" t="n">
-        <v>0.360359572275451</v>
+        <v>-1.02804788540223</v>
       </c>
       <c r="EM2" t="n">
-        <v>-0.563027955404188</v>
+        <v>0.403571928621565</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.613990758176599</v>
+        <v>-0.666064135150554</v>
       </c>
       <c r="EO2" t="n">
-        <v>0.741569296499829</v>
+        <v>-0.176261787399765</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.135426017573518</v>
+        <v>-0.866022263539053</v>
       </c>
       <c r="EQ2" t="n">
-        <v>-0.500587198926219</v>
+        <v>0.316886702465332</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.676012730827202</v>
+        <v>0.396320142922608</v>
       </c>
       <c r="ES2" t="n">
-        <v>-0.274005156635163</v>
+        <v>1.44251561357484</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.171609241562987</v>
+        <v>0.886232596114821</v>
       </c>
       <c r="EU2" t="n">
-        <v>3.4873842079654</v>
+        <v>1.46013215813272</v>
       </c>
       <c r="EV2" t="n">
-        <v>0.668928676397074</v>
+        <v>-0.346066054616338</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.650365612530242</v>
+        <v>0.558761089276389</v>
       </c>
       <c r="EX2" t="n">
-        <v>2.01388333829586</v>
+        <v>0.78698043130344</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.584317600879325</v>
+        <v>-1.41061997536338</v>
       </c>
       <c r="EZ2" t="n">
-        <v>1.90193523892932</v>
+        <v>2.0973803317971</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.793191455854133</v>
+        <v>-0.503860673309563</v>
       </c>
       <c r="FB2" t="n">
-        <v>0.601684359072779</v>
+        <v>-2.06004915343773</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0.383500898369151</v>
+        <v>0.333077869735094</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.225180843702547</v>
+        <v>0.241455448984056</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0247211109346558</v>
+        <v>-0.0787350524968968</v>
       </c>
       <c r="FF2" t="n">
-        <v>1.08917974896587</v>
+        <v>-3.15801931117727</v>
       </c>
       <c r="FG2" t="n">
-        <v>2.78740201607653</v>
+        <v>1.35887457411826</v>
       </c>
       <c r="FH2" t="n">
-        <v>0.423356669190761</v>
+        <v>-0.41618410345621</v>
       </c>
       <c r="FI2" t="n">
-        <v>-1.32861991818462</v>
+        <v>-0.618572103297309</v>
       </c>
       <c r="FJ2" t="n">
-        <v>-0.77847310986324</v>
+        <v>0.401396118168982</v>
       </c>
       <c r="FK2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FN2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FO2" t="n">
         <v>1</v>
       </c>
       <c r="FP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FQ2" t="n">
         <v>1</v>
-      </c>
-      <c r="FQ2" t="n">
-        <v>0</v>
       </c>
       <c r="FR2" t="n">
         <v>0</v>
@@ -1976,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="FT2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FU2" t="n">
         <v>1</v>
@@ -1988,18 +2006,27 @@
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FY2" t="n">
         <v>1</v>
       </c>
       <c r="FZ2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GB2" t="n">
         <v>0</v>
       </c>
-      <c r="GA2" t="n">
+      <c r="GC2" t="n">
+        <v>1</v>
+      </c>
+      <c r="GD2" t="n">
         <v>0</v>
       </c>
-      <c r="GB2" t="n">
+      <c r="GE2" t="n">
         <v>1</v>
       </c>
     </row>

--- a/file_checks/X_correct_genes_wrong_pheno.xlsx
+++ b/file_checks/X_correct_genes_wrong_pheno.xlsx
@@ -1469,517 +1469,517 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.697514594722577</v>
+        <v>1.08811630138052</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.491357502828681</v>
+        <v>-0.581668765246903</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.309243779805725</v>
+        <v>-0.892252018665412</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.19463026933733</v>
+        <v>-1.85484042271056</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.642256029647949</v>
+        <v>-1.08635207481054</v>
       </c>
       <c r="F2" t="n">
-        <v>1.2819898630673</v>
+        <v>2.09644573829477</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0508805321446398</v>
+        <v>-1.97715284293685</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.948570332650002</v>
+        <v>0.207053223515165</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.856556098723805</v>
+        <v>1.72079567743595</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.96261371299428</v>
+        <v>0.192956606611614</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.203762911050195</v>
+        <v>-0.563593098998359</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.796641531311035</v>
+        <v>0.732981244280444</v>
       </c>
       <c r="M2" t="n">
-        <v>0.124206665452719</v>
+        <v>1.92921852696962</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.848259971460285</v>
+        <v>0.813405591222873</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0718870903230821</v>
+        <v>1.65416376349334</v>
       </c>
       <c r="P2" t="n">
-        <v>2.1411067678931</v>
+        <v>-0.187703041144855</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.0826210452308016</v>
+        <v>-1.50411815979092</v>
       </c>
       <c r="R2" t="n">
-        <v>0.072598412196601</v>
+        <v>0.069494196604413</v>
       </c>
       <c r="S2" t="n">
-        <v>4.02029147676689</v>
+        <v>0.978537452456097</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86266613516647</v>
+        <v>-0.541262527597492</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.0880481161533325</v>
+        <v>0.0832575894040652</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.939239594912237</v>
+        <v>2.35090469508858</v>
       </c>
       <c r="W2" t="n">
-        <v>-1.71039703322208</v>
+        <v>2.04405455632071</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.179675760259279</v>
+        <v>-0.127984268391675</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.765642241071463</v>
+        <v>2.79599724694789</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.223446545062862</v>
+        <v>1.33309703194588</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.669716053128112</v>
+        <v>0.0550131564579343</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.13600278184753</v>
+        <v>-2.31498175452062</v>
       </c>
       <c r="AC2" t="n">
-        <v>-2.16198128812405</v>
+        <v>-0.643100830068787</v>
       </c>
       <c r="AD2" t="n">
-        <v>-2.28880960191139</v>
+        <v>1.57175192110936</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.285037569745173</v>
+        <v>-2.7764394678299</v>
       </c>
       <c r="AF2" t="n">
-        <v>-2.10661167437928</v>
+        <v>0.4422173747815</v>
       </c>
       <c r="AG2" t="n">
-        <v>0.17075679160221</v>
+        <v>-0.833259164263771</v>
       </c>
       <c r="AH2" t="n">
-        <v>1.56079446033008</v>
+        <v>1.55996955306394</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.621842161536371</v>
+        <v>-0.668733751901011</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.583892600614114</v>
+        <v>1.02187843789482</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.35584079345241</v>
+        <v>-0.977320219605712</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.16523631358054</v>
+        <v>1.88418050782007</v>
       </c>
       <c r="AM2" t="n">
-        <v>-0.658488856335272</v>
+        <v>1.02443384407331</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.684681349736467</v>
+        <v>-1.38405359660317</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.144187819979144</v>
+        <v>0.494531196103659</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.66174500858683</v>
+        <v>-0.191814046031476</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0.674580813539964</v>
+        <v>1.32825964157739</v>
       </c>
       <c r="AR2" t="n">
-        <v>-0.304804163338111</v>
+        <v>0.0780062883692584</v>
       </c>
       <c r="AS2" t="n">
-        <v>-0.113488269260014</v>
+        <v>0.392511413853993</v>
       </c>
       <c r="AT2" t="n">
-        <v>-0.740647714610414</v>
+        <v>0.550606979801865</v>
       </c>
       <c r="AU2" t="n">
-        <v>-0.503060317710233</v>
+        <v>0.421811239210491</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.521015810484499</v>
+        <v>0.302496316973976</v>
       </c>
       <c r="AW2" t="n">
-        <v>1.28202305200535</v>
+        <v>-1.00056407114658</v>
       </c>
       <c r="AX2" t="n">
-        <v>0.974742174932337</v>
+        <v>0.0988059708604101</v>
       </c>
       <c r="AY2" t="n">
-        <v>0.716646627654134</v>
+        <v>-0.0865068424912768</v>
       </c>
       <c r="AZ2" t="n">
-        <v>-1.25790842917589</v>
+        <v>1.26079724072404</v>
       </c>
       <c r="BA2" t="n">
-        <v>-0.0092101261979974</v>
+        <v>-1.43942325602101</v>
       </c>
       <c r="BB2" t="n">
-        <v>0.251512385579667</v>
+        <v>-0.424319547543613</v>
       </c>
       <c r="BC2" t="n">
-        <v>-0.816720523655337</v>
+        <v>0.905302462902652</v>
       </c>
       <c r="BD2" t="n">
-        <v>-0.862001122412184</v>
+        <v>-1.17617254952151</v>
       </c>
       <c r="BE2" t="n">
-        <v>-0.425539126938418</v>
+        <v>-0.74113662868544</v>
       </c>
       <c r="BF2" t="n">
-        <v>-1.09549954596627</v>
+        <v>-0.363280944135911</v>
       </c>
       <c r="BG2" t="n">
-        <v>1.15537417490741</v>
+        <v>0.796013760663955</v>
       </c>
       <c r="BH2" t="n">
-        <v>-1.39643599551427</v>
+        <v>-2.64880998136882</v>
       </c>
       <c r="BI2" t="n">
-        <v>0.0302681909602505</v>
+        <v>0.720576150135055</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1.67456057686875</v>
+        <v>0.774259609336555</v>
       </c>
       <c r="BK2" t="n">
-        <v>0.466211383231206</v>
+        <v>0.754187905901834</v>
       </c>
       <c r="BL2" t="n">
-        <v>-0.48987719401025</v>
+        <v>0.736567926896051</v>
       </c>
       <c r="BM2" t="n">
-        <v>1.05656685437679</v>
+        <v>0.424807902258877</v>
       </c>
       <c r="BN2" t="n">
-        <v>0.0919238969130364</v>
+        <v>-0.452240703304815</v>
       </c>
       <c r="BO2" t="n">
-        <v>-1.19958144041312</v>
+        <v>0.80255619604579</v>
       </c>
       <c r="BP2" t="n">
-        <v>-0.296301525165965</v>
+        <v>0.125203364812626</v>
       </c>
       <c r="BQ2" t="n">
-        <v>0.825727738560444</v>
+        <v>-0.0928539397954233</v>
       </c>
       <c r="BR2" t="n">
-        <v>-0.408484456331923</v>
+        <v>-0.248093722953572</v>
       </c>
       <c r="BS2" t="n">
-        <v>-0.900122995643793</v>
+        <v>0.332344589310626</v>
       </c>
       <c r="BT2" t="n">
-        <v>1.78096938766088</v>
+        <v>0.0618327316637466</v>
       </c>
       <c r="BU2" t="n">
-        <v>0.478591183791851</v>
+        <v>0.278257168936373</v>
       </c>
       <c r="BV2" t="n">
-        <v>0.112019697734297</v>
+        <v>-2.63012435261597</v>
       </c>
       <c r="BW2" t="n">
-        <v>-1.93894251462615</v>
+        <v>0.773585796721672</v>
       </c>
       <c r="BX2" t="n">
-        <v>0.25394418113565</v>
+        <v>0.673393079856496</v>
       </c>
       <c r="BY2" t="n">
-        <v>-0.00559207078480924</v>
+        <v>-1.59608061056569</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0.54565185485714</v>
+        <v>-0.674907340643103</v>
       </c>
       <c r="CA2" t="n">
-        <v>-0.160951514839096</v>
+        <v>-0.500209222750043</v>
       </c>
       <c r="CB2" t="n">
-        <v>0.532604255762366</v>
+        <v>-1.09349402356387</v>
       </c>
       <c r="CC2" t="n">
-        <v>-0.104379966046575</v>
+        <v>-0.273496378164756</v>
       </c>
       <c r="CD2" t="n">
-        <v>0.741024942141192</v>
+        <v>-1.01640430512295</v>
       </c>
       <c r="CE2" t="n">
-        <v>0.22060160553098</v>
+        <v>0.741558422169347</v>
       </c>
       <c r="CF2" t="n">
-        <v>-0.696575967152303</v>
+        <v>0.107100330293712</v>
       </c>
       <c r="CG2" t="n">
-        <v>0.656071577221661</v>
+        <v>1.00993228163628</v>
       </c>
       <c r="CH2" t="n">
-        <v>-0.493702327354168</v>
+        <v>-0.697014084501801</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0.506833675915727</v>
+        <v>0.973200934333366</v>
       </c>
       <c r="CJ2" t="n">
-        <v>-1.29088718427462</v>
+        <v>0.887641010539716</v>
       </c>
       <c r="CK2" t="n">
-        <v>0.801996400685382</v>
+        <v>-1.6213069888045</v>
       </c>
       <c r="CL2" t="n">
-        <v>-1.73326007609579</v>
+        <v>-0.217158771903658</v>
       </c>
       <c r="CM2" t="n">
-        <v>-1.09603348196083</v>
+        <v>0.728601691128623</v>
       </c>
       <c r="CN2" t="n">
-        <v>1.10586279718626</v>
+        <v>-0.203950724716941</v>
       </c>
       <c r="CO2" t="n">
-        <v>0.470402635345725</v>
+        <v>-0.82326105004283</v>
       </c>
       <c r="CP2" t="n">
-        <v>1.5962349154818</v>
+        <v>0.456620451850951</v>
       </c>
       <c r="CQ2" t="n">
-        <v>-0.621954803060405</v>
+        <v>-0.0304105387974003</v>
       </c>
       <c r="CR2" t="n">
-        <v>1.07208603595402</v>
+        <v>-0.523673155652151</v>
       </c>
       <c r="CS2" t="n">
-        <v>-1.43394816288753</v>
+        <v>1.34464904790205</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.957096460249657</v>
+        <v>0.693455703183907</v>
       </c>
       <c r="CU2" t="n">
-        <v>0.411368224533706</v>
+        <v>2.08756106149689</v>
       </c>
       <c r="CV2" t="n">
-        <v>0.950056185761822</v>
+        <v>0.428455472565811</v>
       </c>
       <c r="CW2" t="n">
-        <v>0.31591710411394</v>
+        <v>-0.362265898412481</v>
       </c>
       <c r="CX2" t="n">
-        <v>-0.155898232277301</v>
+        <v>-0.925494041242318</v>
       </c>
       <c r="CY2" t="n">
-        <v>-1.31188143219367</v>
+        <v>-1.61118393938056</v>
       </c>
       <c r="CZ2" t="n">
-        <v>1.37354245880111</v>
+        <v>-0.121766702582109</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.389117317292965</v>
+        <v>-0.326968146892071</v>
       </c>
       <c r="DB2" t="n">
-        <v>0.78728216635024</v>
+        <v>1.31037878426319</v>
       </c>
       <c r="DC2" t="n">
-        <v>-1.98518782445248</v>
+        <v>1.15914356450971</v>
       </c>
       <c r="DD2" t="n">
-        <v>-1.38254985088889</v>
+        <v>-2.71398135788397</v>
       </c>
       <c r="DE2" t="n">
-        <v>-0.245062549221101</v>
+        <v>0.104146136288098</v>
       </c>
       <c r="DF2" t="n">
-        <v>1.16852754424024</v>
+        <v>-0.438889638451491</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.746014349848874</v>
+        <v>-0.524329724730582</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.925961731149892</v>
+        <v>-0.467531025631807</v>
       </c>
       <c r="DI2" t="n">
-        <v>-0.814934983781039</v>
+        <v>0.491535055622226</v>
       </c>
       <c r="DJ2" t="n">
-        <v>0.707936801037086</v>
+        <v>-1.32931248447839</v>
       </c>
       <c r="DK2" t="n">
-        <v>-1.17065914532653</v>
+        <v>-1.3668274619589</v>
       </c>
       <c r="DL2" t="n">
-        <v>-0.729017835805525</v>
+        <v>0.473516647285181</v>
       </c>
       <c r="DM2" t="n">
-        <v>-1.0259580783921</v>
+        <v>-1.40260066795065</v>
       </c>
       <c r="DN2" t="n">
-        <v>0.741001622123877</v>
+        <v>0.358948575051575</v>
       </c>
       <c r="DO2" t="n">
-        <v>-0.0477653277392361</v>
+        <v>-1.09363390201218</v>
       </c>
       <c r="DP2" t="n">
-        <v>-1.37992750156178</v>
+        <v>1.02127673878439</v>
       </c>
       <c r="DQ2" t="n">
-        <v>1.027190679539</v>
+        <v>0.372200504223028</v>
       </c>
       <c r="DR2" t="n">
-        <v>0.344450687501913</v>
+        <v>-0.180183601588659</v>
       </c>
       <c r="DS2" t="n">
-        <v>1.61583416835715</v>
+        <v>0.121183719067905</v>
       </c>
       <c r="DT2" t="n">
-        <v>0.92880664466808</v>
+        <v>-0.678990634334018</v>
       </c>
       <c r="DU2" t="n">
-        <v>0.868641311544345</v>
+        <v>0.112795538037382</v>
       </c>
       <c r="DV2" t="n">
-        <v>-0.490725659727566</v>
+        <v>-1.60478533639975</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.27051951917213</v>
+        <v>0.353660628301266</v>
       </c>
       <c r="DX2" t="n">
-        <v>-0.248808216027432</v>
+        <v>0.558259465283196</v>
       </c>
       <c r="DY2" t="n">
-        <v>-0.817333856971078</v>
+        <v>0.543166935137384</v>
       </c>
       <c r="DZ2" t="n">
-        <v>-0.183160567309036</v>
+        <v>0.176541342304859</v>
       </c>
       <c r="EA2" t="n">
-        <v>1.46136728729149</v>
+        <v>0.353238123420439</v>
       </c>
       <c r="EB2" t="n">
-        <v>0.0989091902939847</v>
+        <v>-1.4782790800368</v>
       </c>
       <c r="EC2" t="n">
-        <v>-0.0663556234350011</v>
+        <v>-0.551385728723287</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.103779957079903</v>
+        <v>-0.888813745027001</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.0506698213144966</v>
+        <v>1.69935273138388</v>
       </c>
       <c r="EF2" t="n">
-        <v>1.01839146550064</v>
+        <v>-1.89371236384786</v>
       </c>
       <c r="EG2" t="n">
-        <v>0.216936673098082</v>
+        <v>0.213039349109757</v>
       </c>
       <c r="EH2" t="n">
-        <v>0.73546636429493</v>
+        <v>-1.36856250252119</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.35736725400751</v>
+        <v>-1.20675713572678</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.62321277341077</v>
+        <v>-0.372042603436049</v>
       </c>
       <c r="EK2" t="n">
-        <v>-1.44417347201529</v>
+        <v>-0.227017723916522</v>
       </c>
       <c r="EL2" t="n">
-        <v>-1.02804788540223</v>
+        <v>0.0800475085593939</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.403571928621565</v>
+        <v>-1.59386049678378</v>
       </c>
       <c r="EN2" t="n">
-        <v>-0.666064135150554</v>
+        <v>0.973229084143638</v>
       </c>
       <c r="EO2" t="n">
-        <v>-0.176261787399765</v>
+        <v>1.7162947941761</v>
       </c>
       <c r="EP2" t="n">
-        <v>-0.866022263539053</v>
+        <v>-0.604713554635344</v>
       </c>
       <c r="EQ2" t="n">
-        <v>0.316886702465332</v>
+        <v>0.167341177555078</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.396320142922608</v>
+        <v>-0.331385391433842</v>
       </c>
       <c r="ES2" t="n">
-        <v>1.44251561357484</v>
+        <v>0.464396622441057</v>
       </c>
       <c r="ET2" t="n">
-        <v>0.886232596114821</v>
+        <v>-0.768570049957814</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.46013215813272</v>
+        <v>0.541778785815217</v>
       </c>
       <c r="EV2" t="n">
-        <v>-0.346066054616338</v>
+        <v>-0.664035152710795</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.558761089276389</v>
+        <v>-0.170801027206187</v>
       </c>
       <c r="EX2" t="n">
-        <v>0.78698043130344</v>
+        <v>0.660085857524086</v>
       </c>
       <c r="EY2" t="n">
-        <v>-1.41061997536338</v>
+        <v>0.621476558908612</v>
       </c>
       <c r="EZ2" t="n">
-        <v>2.0973803317971</v>
+        <v>1.23745934042127</v>
       </c>
       <c r="FA2" t="n">
-        <v>-0.503860673309563</v>
+        <v>0.195863048608702</v>
       </c>
       <c r="FB2" t="n">
-        <v>-2.06004915343773</v>
+        <v>1.96709830840895</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.333077869735094</v>
+        <v>1.05413818926332</v>
       </c>
       <c r="FD2" t="n">
-        <v>0.241455448984056</v>
+        <v>-0.341086272957515</v>
       </c>
       <c r="FE2" t="n">
-        <v>-0.0787350524968968</v>
+        <v>-0.299528054199092</v>
       </c>
       <c r="FF2" t="n">
-        <v>-3.15801931117727</v>
+        <v>0.730233869299115</v>
       </c>
       <c r="FG2" t="n">
-        <v>1.35887457411826</v>
+        <v>-0.71000886498276</v>
       </c>
       <c r="FH2" t="n">
-        <v>-0.41618410345621</v>
+        <v>-0.359583792746739</v>
       </c>
       <c r="FI2" t="n">
-        <v>-0.618572103297309</v>
+        <v>1.22369839471561</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.401396118168982</v>
+        <v>0.0629173969314527</v>
       </c>
       <c r="FK2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FL2" t="n">
         <v>0</v>
       </c>
       <c r="FM2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FN2" t="n">
         <v>1</v>
       </c>
       <c r="FO2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FP2" t="n">
         <v>0</v>
@@ -1991,34 +1991,34 @@
         <v>0</v>
       </c>
       <c r="FS2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="FT2" t="n">
         <v>1</v>
       </c>
       <c r="FU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="FV2" t="n">
         <v>1</v>
-      </c>
-      <c r="FV2" t="n">
-        <v>0</v>
       </c>
       <c r="FW2" t="n">
         <v>0</v>
       </c>
       <c r="FX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="GA2" t="n">
         <v>1</v>
       </c>
       <c r="GB2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="GC2" t="n">
         <v>1</v>
